--- a/Jogos_do_Dia/2023-08-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -190,16 +190,19 @@
     <t>Ñublense</t>
   </si>
   <si>
+    <t>Aris</t>
+  </si>
+  <si>
+    <t>Maccabi Haifa</t>
+  </si>
+  <si>
+    <t>Sparta Praha</t>
+  </si>
+  <si>
     <t>Molde</t>
   </si>
   <si>
-    <t>Aris</t>
-  </si>
-  <si>
-    <t>Maccabi Haifa</t>
-  </si>
-  <si>
-    <t>Sparta Praha</t>
+    <t>Bačka Topola</t>
   </si>
   <si>
     <t>Dinamo Zagreb</t>
@@ -208,15 +211,12 @@
     <t>Galatasaray</t>
   </si>
   <si>
-    <t>Bačka Topola</t>
+    <t>Sturm Graz</t>
   </si>
   <si>
     <t>Servette</t>
   </si>
   <si>
-    <t>Sturm Graz</t>
-  </si>
-  <si>
     <t>Tranmere Rovers</t>
   </si>
   <si>
@@ -241,57 +241,57 @@
     <t>Grimsby Town</t>
   </si>
   <si>
+    <t>Stockport County</t>
+  </si>
+  <si>
+    <t>Sutton United</t>
+  </si>
+  <si>
     <t>Morecambe</t>
   </si>
   <si>
-    <t>Stockport County</t>
-  </si>
-  <si>
-    <t>Sutton United</t>
+    <t>Charlton Athletic</t>
+  </si>
+  <si>
+    <t>Blackpool</t>
+  </si>
+  <si>
+    <t>Bolton Wanderers</t>
+  </si>
+  <si>
+    <t>Cambridge United</t>
   </si>
   <si>
     <t>Carlisle United</t>
   </si>
   <si>
+    <t>Derby County</t>
+  </si>
+  <si>
+    <t>Northampton Town</t>
+  </si>
+  <si>
+    <t>Shrewsbury Town</t>
+  </si>
+  <si>
+    <t>Wycombe Wanderers</t>
+  </si>
+  <si>
     <t>Barnsley</t>
   </si>
   <si>
-    <t>Blackpool</t>
-  </si>
-  <si>
-    <t>Bolton Wanderers</t>
-  </si>
-  <si>
-    <t>Cambridge United</t>
-  </si>
-  <si>
-    <t>Charlton Athletic</t>
-  </si>
-  <si>
-    <t>Derby County</t>
-  </si>
-  <si>
-    <t>Northampton Town</t>
-  </si>
-  <si>
-    <t>Shrewsbury Town</t>
-  </si>
-  <si>
-    <t>Wycombe Wanderers</t>
-  </si>
-  <si>
     <t>Wrexham</t>
   </si>
   <si>
+    <t>Olympique Marseille</t>
+  </si>
+  <si>
     <t>Portsmouth</t>
   </si>
   <si>
     <t>Reading</t>
   </si>
   <si>
-    <t>Olympique Marseille</t>
-  </si>
-  <si>
     <t>Atlético PR</t>
   </si>
   <si>
@@ -310,16 +310,19 @@
     <t>Unión La Calera</t>
   </si>
   <si>
+    <t>Raków Częstochowa</t>
+  </si>
+  <si>
+    <t>Slovan Bratislava</t>
+  </si>
+  <si>
+    <t>København</t>
+  </si>
+  <si>
     <t>KÍ</t>
   </si>
   <si>
-    <t>Raków Częstochowa</t>
-  </si>
-  <si>
-    <t>Slovan Bratislava</t>
-  </si>
-  <si>
-    <t>København</t>
+    <t>Sporting Braga</t>
   </si>
   <si>
     <t>AEK Athens</t>
@@ -328,15 +331,12 @@
     <t>Olimpija</t>
   </si>
   <si>
-    <t>Sporting Braga</t>
+    <t>PSV</t>
   </si>
   <si>
     <t>Rangers</t>
   </si>
   <si>
-    <t>PSV</t>
-  </si>
-  <si>
     <t>Harrogate Town</t>
   </si>
   <si>
@@ -361,55 +361,55 @@
     <t>Salford City</t>
   </si>
   <si>
+    <t>Bradford City</t>
+  </si>
+  <si>
+    <t>Gillingham</t>
+  </si>
+  <si>
     <t>Notts County</t>
   </si>
   <si>
-    <t>Bradford City</t>
-  </si>
-  <si>
-    <t>Gillingham</t>
+    <t>Bristol Rovers</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>Fleetwood Town</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
   </si>
   <si>
     <t>Wigan Athletic</t>
   </si>
   <si>
+    <t>Oxford United</t>
+  </si>
+  <si>
+    <t>Lincoln City</t>
+  </si>
+  <si>
+    <t>Burton Albion</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
     <t>Peterborough United</t>
   </si>
   <si>
-    <t>Port Vale</t>
-  </si>
-  <si>
-    <t>Fleetwood Town</t>
-  </si>
-  <si>
-    <t>Stevenage</t>
-  </si>
-  <si>
-    <t>Bristol Rovers</t>
-  </si>
-  <si>
-    <t>Oxford United</t>
-  </si>
-  <si>
-    <t>Lincoln City</t>
-  </si>
-  <si>
-    <t>Burton Albion</t>
-  </si>
-  <si>
-    <t>Leyton Orient</t>
-  </si>
-  <si>
     <t>Walsall</t>
   </si>
   <si>
+    <t>Panathinaikos</t>
+  </si>
+  <si>
     <t>Exeter City</t>
   </si>
   <si>
     <t>Cheltenham Town</t>
-  </si>
-  <si>
-    <t>Panathinaikos</t>
   </si>
   <si>
     <t>Cuiabá</t>
@@ -907,13 +907,13 @@
         <v>93</v>
       </c>
       <c r="G2">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="H2">
-        <v>4.2</v>
+        <v>4.24</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>5.09</v>
       </c>
       <c r="J2">
         <v>1.04</v>
@@ -928,7 +928,7 @@
         <v>3.9</v>
       </c>
       <c r="N2">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O2">
         <v>2</v>
@@ -1014,13 +1014,13 @@
         <v>94</v>
       </c>
       <c r="G3">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="H3">
-        <v>3.25</v>
+        <v>3.06</v>
       </c>
       <c r="I3">
-        <v>2.61</v>
+        <v>2.52</v>
       </c>
       <c r="J3">
         <v>1.07</v>
@@ -1035,10 +1035,10 @@
         <v>3.1</v>
       </c>
       <c r="N3">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="O3">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="P3">
         <v>1.44</v>
@@ -1077,28 +1077,28 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1121,13 +1121,13 @@
         <v>95</v>
       </c>
       <c r="G4">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="H4">
-        <v>3.6</v>
+        <v>3.73</v>
       </c>
       <c r="I4">
-        <v>3.45</v>
+        <v>3.72</v>
       </c>
       <c r="J4">
         <v>1.05</v>
@@ -1145,7 +1145,7 @@
         <v>1.85</v>
       </c>
       <c r="O4">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="P4">
         <v>1.36</v>
@@ -1205,7 +1205,7 @@
         <v>3.14</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1228,13 +1228,13 @@
         <v>96</v>
       </c>
       <c r="G5">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="H5">
-        <v>4.8</v>
+        <v>3.63</v>
       </c>
       <c r="I5">
-        <v>7.8</v>
+        <v>5.4</v>
       </c>
       <c r="J5">
         <v>1.04</v>
@@ -1249,10 +1249,10 @@
         <v>3.75</v>
       </c>
       <c r="N5">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="O5">
-        <v>2.11</v>
+        <v>1.81</v>
       </c>
       <c r="P5">
         <v>1.3</v>
@@ -1335,13 +1335,13 @@
         <v>97</v>
       </c>
       <c r="G6">
-        <v>2.27</v>
+        <v>2.16</v>
       </c>
       <c r="H6">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I6">
-        <v>2.68</v>
+        <v>2.9</v>
       </c>
       <c r="J6">
         <v>1.06</v>
@@ -1442,91 +1442,91 @@
         <v>98</v>
       </c>
       <c r="G7">
-        <v>1.22</v>
+        <v>2.57</v>
       </c>
       <c r="H7">
-        <v>5.9</v>
+        <v>2.88</v>
       </c>
       <c r="I7">
-        <v>7.6</v>
+        <v>2.54</v>
       </c>
       <c r="J7">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.66</v>
+        <v>1.97</v>
       </c>
       <c r="O7">
-        <v>2.2</v>
+        <v>1.84</v>
       </c>
       <c r="P7">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="R7">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="S7">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="T7">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X7">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="Y7">
-        <v>2.22</v>
+        <v>2.45</v>
       </c>
       <c r="Z7">
-        <v>2.25</v>
+        <v>1.68</v>
       </c>
       <c r="AA7">
-        <v>4.47</v>
+        <v>4.13</v>
       </c>
       <c r="AB7">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>2.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1549,91 +1549,91 @@
         <v>99</v>
       </c>
       <c r="G8">
-        <v>2.75</v>
+        <v>1.58</v>
       </c>
       <c r="H8">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I8">
-        <v>2.75</v>
+        <v>4.95</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="N8">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="O8">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="P8">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="Q8">
-        <v>2.63</v>
+        <v>3.42</v>
       </c>
       <c r="R8">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="S8">
-        <v>1.83</v>
+        <v>2.11</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="X8">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="Y8">
-        <v>2.45</v>
+        <v>2.51</v>
       </c>
       <c r="Z8">
-        <v>1.68</v>
+        <v>0.99</v>
       </c>
       <c r="AA8">
-        <v>4.13</v>
+        <v>3.5</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1656,91 +1656,91 @@
         <v>100</v>
       </c>
       <c r="G9">
-        <v>1.54</v>
+        <v>2.4</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2.89</v>
       </c>
       <c r="I9">
-        <v>4.55</v>
+        <v>2.73</v>
       </c>
       <c r="J9">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K9">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="L9">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="M9">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="N9">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="O9">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="P9">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="Q9">
-        <v>3.42</v>
+        <v>2.83</v>
       </c>
       <c r="R9">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="S9">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>1.15</v>
+        <v>1.34</v>
       </c>
       <c r="U9">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="V9">
-        <v>2.43</v>
+        <v>1.68</v>
       </c>
       <c r="W9">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>1.6</v>
+        <v>2.33</v>
       </c>
       <c r="Y9">
-        <v>2.51</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.99</v>
+        <v>1.38</v>
       </c>
       <c r="AA9">
-        <v>3.5</v>
+        <v>1.38</v>
       </c>
       <c r="AB9">
-        <v>1.22</v>
+        <v>1.55</v>
       </c>
       <c r="AC9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AD9">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="AE9">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="AF9">
-        <v>1.29</v>
+        <v>1.52</v>
       </c>
       <c r="AG9">
-        <v>1.43</v>
+        <v>1.94</v>
       </c>
       <c r="AH9">
-        <v>1.75</v>
+        <v>2.52</v>
       </c>
       <c r="AI9">
-        <v>2.22</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1763,91 +1763,91 @@
         <v>101</v>
       </c>
       <c r="G10">
-        <v>2.55</v>
+        <v>1.24</v>
       </c>
       <c r="H10">
-        <v>3.15</v>
+        <v>4.7</v>
       </c>
       <c r="I10">
-        <v>2.95</v>
+        <v>8.98</v>
       </c>
       <c r="J10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K10">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="L10">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="M10">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N10">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="O10">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="P10">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="Q10">
-        <v>2.83</v>
+        <v>4</v>
       </c>
       <c r="R10">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="T10">
-        <v>1.34</v>
+        <v>1.04</v>
       </c>
       <c r="U10">
-        <v>1.31</v>
+        <v>1.12</v>
       </c>
       <c r="V10">
-        <v>1.68</v>
+        <v>4</v>
       </c>
       <c r="W10">
         <v>1</v>
       </c>
       <c r="X10">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="Z10">
-        <v>1.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA10">
-        <v>1.38</v>
+        <v>4.47</v>
       </c>
       <c r="AB10">
-        <v>1.55</v>
+        <v>1.13</v>
       </c>
       <c r="AC10">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AD10">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="AE10">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AF10">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="AG10">
-        <v>1.94</v>
+        <v>1.61</v>
       </c>
       <c r="AH10">
-        <v>2.52</v>
+        <v>2.03</v>
       </c>
       <c r="AI10">
-        <v>3.2</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1870,91 +1870,91 @@
         <v>102</v>
       </c>
       <c r="G11">
-        <v>2.27</v>
+        <v>4.25</v>
       </c>
       <c r="H11">
-        <v>3.1</v>
+        <v>3.71</v>
       </c>
       <c r="I11">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="J11">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="K11">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="L11">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="M11">
-        <v>2.95</v>
+        <v>3.8</v>
       </c>
       <c r="N11">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="O11">
-        <v>1.7</v>
+        <v>2.14</v>
       </c>
       <c r="P11">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="Q11">
-        <v>2.55</v>
+        <v>3.28</v>
       </c>
       <c r="R11">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="S11">
-        <v>1.87</v>
+        <v>2.07</v>
       </c>
       <c r="T11">
-        <v>1.25</v>
+        <v>2.34</v>
       </c>
       <c r="U11">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="V11">
-        <v>1.7</v>
+        <v>1.16</v>
       </c>
       <c r="W11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y11">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="AC11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD11">
-        <v>2.38</v>
+        <v>1.6</v>
       </c>
       <c r="AE11">
-        <v>1.64</v>
+        <v>1.29</v>
       </c>
       <c r="AF11">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="AG11">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="AH11">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="AI11">
-        <v>5.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1977,91 +1977,91 @@
         <v>103</v>
       </c>
       <c r="G12">
-        <v>1.26</v>
+        <v>2.12</v>
       </c>
       <c r="H12">
+        <v>2.87</v>
+      </c>
+      <c r="I12">
+        <v>3.22</v>
+      </c>
+      <c r="J12">
+        <v>1.07</v>
+      </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <v>1.35</v>
+      </c>
+      <c r="M12">
+        <v>2.95</v>
+      </c>
+      <c r="N12">
+        <v>1.85</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>1.44</v>
+      </c>
+      <c r="Q12">
+        <v>2.55</v>
+      </c>
+      <c r="R12">
+        <v>1.87</v>
+      </c>
+      <c r="S12">
+        <v>1.87</v>
+      </c>
+      <c r="T12">
+        <v>1.25</v>
+      </c>
+      <c r="U12">
+        <v>1.35</v>
+      </c>
+      <c r="V12">
+        <v>1.7</v>
+      </c>
+      <c r="W12">
+        <v>3</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>2.41</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>2.41</v>
+      </c>
+      <c r="AB12">
+        <v>1.95</v>
+      </c>
+      <c r="AC12">
         <v>6</v>
       </c>
-      <c r="I12">
-        <v>11</v>
-      </c>
-      <c r="J12">
-        <v>1.03</v>
-      </c>
-      <c r="K12">
-        <v>11</v>
-      </c>
-      <c r="L12">
-        <v>1.16</v>
-      </c>
-      <c r="M12">
-        <v>4.5</v>
-      </c>
-      <c r="N12">
-        <v>1.61</v>
-      </c>
-      <c r="O12">
-        <v>2.15</v>
-      </c>
-      <c r="P12">
-        <v>1.28</v>
-      </c>
-      <c r="Q12">
-        <v>3.48</v>
-      </c>
-      <c r="R12">
-        <v>2.01</v>
-      </c>
-      <c r="S12">
-        <v>1.76</v>
-      </c>
-      <c r="T12">
-        <v>1.04</v>
-      </c>
-      <c r="U12">
-        <v>1.14</v>
-      </c>
-      <c r="V12">
-        <v>3.64</v>
-      </c>
-      <c r="W12">
-        <v>2.33</v>
-      </c>
-      <c r="X12">
-        <v>2</v>
-      </c>
-      <c r="Y12">
-        <v>1.89</v>
-      </c>
-      <c r="Z12">
-        <v>1.93</v>
-      </c>
-      <c r="AA12">
-        <v>3.82</v>
-      </c>
-      <c r="AB12">
-        <v>1.15</v>
-      </c>
-      <c r="AC12">
-        <v>10</v>
-      </c>
       <c r="AD12">
-        <v>7.5</v>
+        <v>2.38</v>
       </c>
       <c r="AE12">
-        <v>1.17</v>
+        <v>1.64</v>
       </c>
       <c r="AF12">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="AG12">
-        <v>1.48</v>
+        <v>2.9</v>
       </c>
       <c r="AH12">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="AI12">
-        <v>2.27</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -2084,91 +2084,91 @@
         <v>104</v>
       </c>
       <c r="G13">
-        <v>4.9</v>
+        <v>1.21</v>
       </c>
       <c r="H13">
-        <v>4.2</v>
+        <v>5.07</v>
       </c>
       <c r="I13">
-        <v>1.63</v>
+        <v>9.4</v>
       </c>
       <c r="J13">
+        <v>1.03</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <v>1.16</v>
+      </c>
+      <c r="M13">
+        <v>4.5</v>
+      </c>
+      <c r="N13">
+        <v>1.6</v>
+      </c>
+      <c r="O13">
+        <v>2.1</v>
+      </c>
+      <c r="P13">
+        <v>1.28</v>
+      </c>
+      <c r="Q13">
+        <v>3.48</v>
+      </c>
+      <c r="R13">
+        <v>2.01</v>
+      </c>
+      <c r="S13">
+        <v>1.76</v>
+      </c>
+      <c r="T13">
         <v>1.04</v>
       </c>
-      <c r="K13">
-        <v>11.5</v>
-      </c>
-      <c r="L13">
-        <v>1.23</v>
-      </c>
-      <c r="M13">
-        <v>3.8</v>
-      </c>
-      <c r="N13">
-        <v>1.7</v>
-      </c>
-      <c r="O13">
+      <c r="U13">
+        <v>1.14</v>
+      </c>
+      <c r="V13">
+        <v>3.64</v>
+      </c>
+      <c r="W13">
+        <v>2.33</v>
+      </c>
+      <c r="X13">
         <v>2</v>
       </c>
-      <c r="P13">
-        <v>1.31</v>
-      </c>
-      <c r="Q13">
-        <v>3.28</v>
-      </c>
-      <c r="R13">
-        <v>1.72</v>
-      </c>
-      <c r="S13">
-        <v>2.07</v>
-      </c>
-      <c r="T13">
-        <v>2.34</v>
-      </c>
-      <c r="U13">
-        <v>1.22</v>
-      </c>
-      <c r="V13">
-        <v>1.16</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>3</v>
-      </c>
       <c r="Y13">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>3.82</v>
       </c>
       <c r="AB13">
-        <v>3</v>
+        <v>1.15</v>
       </c>
       <c r="AC13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AD13">
-        <v>1.6</v>
+        <v>7.5</v>
       </c>
       <c r="AE13">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AF13">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AG13">
+        <v>1.48</v>
+      </c>
+      <c r="AH13">
         <v>1.8</v>
       </c>
-      <c r="AH13">
-        <v>2.25</v>
-      </c>
       <c r="AI13">
-        <v>2.8</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2191,91 +2191,91 @@
         <v>105</v>
       </c>
       <c r="G14">
-        <v>3.35</v>
+        <v>2.99</v>
       </c>
       <c r="H14">
-        <v>3.4</v>
+        <v>3.33</v>
       </c>
       <c r="I14">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="J14">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K14">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="L14">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="M14">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N14">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="O14">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="P14">
+        <v>1.3</v>
+      </c>
+      <c r="Q14">
+        <v>3.34</v>
+      </c>
+      <c r="R14">
+        <v>1.56</v>
+      </c>
+      <c r="S14">
+        <v>2.36</v>
+      </c>
+      <c r="T14">
+        <v>1.75</v>
+      </c>
+      <c r="U14">
+        <v>1.27</v>
+      </c>
+      <c r="V14">
         <v>1.33</v>
       </c>
-      <c r="Q14">
-        <v>3.16</v>
-      </c>
-      <c r="R14">
-        <v>1.63</v>
-      </c>
-      <c r="S14">
-        <v>2.22</v>
-      </c>
-      <c r="T14">
-        <v>1.78</v>
-      </c>
-      <c r="U14">
-        <v>1.28</v>
-      </c>
-      <c r="V14">
-        <v>1.31</v>
-      </c>
       <c r="W14">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="X14">
         <v>3</v>
       </c>
       <c r="Y14">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="Z14">
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AC14">
         <v>7</v>
       </c>
       <c r="AD14">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AE14">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AF14">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AG14">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AH14">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AI14">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2298,91 +2298,91 @@
         <v>106</v>
       </c>
       <c r="G15">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H15">
-        <v>3.65</v>
+        <v>3.13</v>
       </c>
       <c r="I15">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J15">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K15">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="L15">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="M15">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N15">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O15">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="P15">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q15">
-        <v>3.34</v>
+        <v>3.16</v>
       </c>
       <c r="R15">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="S15">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="T15">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U15">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="V15">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="X15">
         <v>3</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AB15">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="AC15">
         <v>7</v>
       </c>
       <c r="AD15">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AE15">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AF15">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AG15">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AH15">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AI15">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2405,13 +2405,13 @@
         <v>107</v>
       </c>
       <c r="G16">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I16">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="J16">
         <v>1.06</v>
@@ -2426,10 +2426,10 @@
         <v>3.1</v>
       </c>
       <c r="N16">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="O16">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="P16">
         <v>1.44</v>
@@ -2512,13 +2512,13 @@
         <v>108</v>
       </c>
       <c r="G17">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
       <c r="H17">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="I17">
-        <v>3.15</v>
+        <v>3.12</v>
       </c>
       <c r="J17">
         <v>1.08</v>
@@ -2533,10 +2533,10 @@
         <v>2.8</v>
       </c>
       <c r="N17">
-        <v>2.3</v>
+        <v>2.19</v>
       </c>
       <c r="O17">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P17">
         <v>1.48</v>
@@ -2619,13 +2619,13 @@
         <v>109</v>
       </c>
       <c r="G18">
-        <v>2.13</v>
+        <v>2.24</v>
       </c>
       <c r="H18">
-        <v>3.2</v>
+        <v>3.01</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="J18">
         <v>1.06</v>
@@ -2640,10 +2640,10 @@
         <v>3</v>
       </c>
       <c r="N18">
-        <v>2.15</v>
+        <v>2.06</v>
       </c>
       <c r="O18">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="P18">
         <v>1.44</v>
@@ -2726,13 +2726,13 @@
         <v>110</v>
       </c>
       <c r="G19">
-        <v>3.5</v>
+        <v>3.42</v>
       </c>
       <c r="H19">
-        <v>3.4</v>
+        <v>3.33</v>
       </c>
       <c r="I19">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="J19">
         <v>1.05</v>
@@ -2833,13 +2833,13 @@
         <v>111</v>
       </c>
       <c r="G20">
-        <v>2.89</v>
+        <v>2.56</v>
       </c>
       <c r="H20">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I20">
-        <v>2.16</v>
+        <v>2.44</v>
       </c>
       <c r="J20">
         <v>1.05</v>
@@ -2854,10 +2854,10 @@
         <v>3.25</v>
       </c>
       <c r="N20">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="O20">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="P20">
         <v>1.4</v>
@@ -2940,13 +2940,13 @@
         <v>112</v>
       </c>
       <c r="G21">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="H21">
-        <v>3.35</v>
+        <v>3.28</v>
       </c>
       <c r="I21">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="J21">
         <v>1.04</v>
@@ -2961,10 +2961,10 @@
         <v>3.5</v>
       </c>
       <c r="N21">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="O21">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="P21">
         <v>1.36</v>
@@ -3047,13 +3047,13 @@
         <v>113</v>
       </c>
       <c r="G22">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H22">
-        <v>3.15</v>
+        <v>3.14</v>
       </c>
       <c r="I22">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="J22">
         <v>1.05</v>
@@ -3068,10 +3068,10 @@
         <v>3.3</v>
       </c>
       <c r="N22">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O22">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="P22">
         <v>1.39</v>
@@ -3154,13 +3154,13 @@
         <v>114</v>
       </c>
       <c r="G23">
-        <v>2.23</v>
+        <v>2.26</v>
       </c>
       <c r="H23">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I23">
-        <v>2.79</v>
+        <v>2.75</v>
       </c>
       <c r="J23">
         <v>1.06</v>
@@ -3175,10 +3175,10 @@
         <v>3.2</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="O23">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="P23">
         <v>1.41</v>
@@ -3261,91 +3261,91 @@
         <v>115</v>
       </c>
       <c r="G24">
-        <v>3.5</v>
+        <v>1.71</v>
       </c>
       <c r="H24">
-        <v>3.5</v>
+        <v>3.21</v>
       </c>
       <c r="I24">
+        <v>4.28</v>
+      </c>
+      <c r="J24">
+        <v>1.06</v>
+      </c>
+      <c r="K24">
+        <v>9.5</v>
+      </c>
+      <c r="L24">
+        <v>1.38</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>2.1</v>
+      </c>
+      <c r="O24">
+        <v>1.65</v>
+      </c>
+      <c r="P24">
+        <v>1.42</v>
+      </c>
+      <c r="Q24">
+        <v>2.65</v>
+      </c>
+      <c r="R24">
         <v>2</v>
       </c>
-      <c r="J24">
-        <v>1.03</v>
-      </c>
-      <c r="K24">
-        <v>13</v>
-      </c>
-      <c r="L24">
-        <v>1.22</v>
-      </c>
-      <c r="M24">
-        <v>4.2</v>
-      </c>
-      <c r="N24">
-        <v>1.65</v>
-      </c>
-      <c r="O24">
-        <v>2.1</v>
-      </c>
-      <c r="P24">
-        <v>1.36</v>
-      </c>
-      <c r="Q24">
-        <v>3</v>
-      </c>
-      <c r="R24">
-        <v>1.67</v>
-      </c>
       <c r="S24">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="T24">
-        <v>1.83</v>
+        <v>1.19</v>
       </c>
       <c r="U24">
         <v>1.25</v>
       </c>
       <c r="V24">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="W24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X24">
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>1.12</v>
+        <v>1.54</v>
       </c>
       <c r="Z24">
-        <v>1.15</v>
+        <v>1.54</v>
       </c>
       <c r="AA24">
-        <v>2.27</v>
+        <v>3.08</v>
       </c>
       <c r="AB24">
-        <v>3.07</v>
+        <v>1.31</v>
       </c>
       <c r="AC24">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD24">
-        <v>1.51</v>
+        <v>4.41</v>
       </c>
       <c r="AE24">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AF24">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="AG24">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="AH24">
-        <v>2.22</v>
+        <v>2.37</v>
       </c>
       <c r="AI24">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3368,37 +3368,37 @@
         <v>116</v>
       </c>
       <c r="G25">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="H25">
-        <v>3.4</v>
+        <v>3.09</v>
       </c>
       <c r="I25">
-        <v>4.4</v>
+        <v>3.89</v>
       </c>
       <c r="J25">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K25">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="L25">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N25">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="O25">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="P25">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="Q25">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="R25">
         <v>2</v>
@@ -3407,52 +3407,52 @@
         <v>1.73</v>
       </c>
       <c r="T25">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="U25">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y25">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="Z25">
-        <v>1.54</v>
+        <v>0.99</v>
       </c>
       <c r="AA25">
-        <v>3.08</v>
+        <v>2.59</v>
       </c>
       <c r="AB25">
-        <v>1.31</v>
+        <v>1.69</v>
       </c>
       <c r="AC25">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AD25">
-        <v>4.41</v>
+        <v>2.63</v>
       </c>
       <c r="AE25">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AF25">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="AG25">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="AH25">
-        <v>2.37</v>
+        <v>2.7</v>
       </c>
       <c r="AI25">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -3475,91 +3475,91 @@
         <v>117</v>
       </c>
       <c r="G26">
-        <v>2.13</v>
+        <v>3.42</v>
       </c>
       <c r="H26">
-        <v>3.15</v>
+        <v>3.33</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>1.93</v>
       </c>
       <c r="J26">
         <v>1.03</v>
       </c>
       <c r="K26">
-        <v>8.75</v>
+        <v>13</v>
       </c>
       <c r="L26">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="M26">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="N26">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="O26">
-        <v>1.57</v>
+        <v>2.11</v>
       </c>
       <c r="P26">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="Q26">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="S26">
+        <v>2.1</v>
+      </c>
+      <c r="T26">
+        <v>1.83</v>
+      </c>
+      <c r="U26">
+        <v>1.25</v>
+      </c>
+      <c r="V26">
+        <v>1.3</v>
+      </c>
+      <c r="W26">
+        <v>3</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>1.12</v>
+      </c>
+      <c r="Z26">
+        <v>1.15</v>
+      </c>
+      <c r="AA26">
+        <v>2.27</v>
+      </c>
+      <c r="AB26">
+        <v>3.07</v>
+      </c>
+      <c r="AC26">
+        <v>8.5</v>
+      </c>
+      <c r="AD26">
+        <v>1.51</v>
+      </c>
+      <c r="AE26">
+        <v>1.24</v>
+      </c>
+      <c r="AF26">
+        <v>1.41</v>
+      </c>
+      <c r="AG26">
         <v>1.73</v>
       </c>
-      <c r="T26">
-        <v>1.28</v>
-      </c>
-      <c r="U26">
-        <v>1.35</v>
-      </c>
-      <c r="V26">
-        <v>1.55</v>
-      </c>
-      <c r="W26">
-        <v>3</v>
-      </c>
-      <c r="X26">
-        <v>3</v>
-      </c>
-      <c r="Y26">
-        <v>1.6</v>
-      </c>
-      <c r="Z26">
-        <v>0.99</v>
-      </c>
-      <c r="AA26">
-        <v>2.59</v>
-      </c>
-      <c r="AB26">
-        <v>1.69</v>
-      </c>
-      <c r="AC26">
-        <v>8</v>
-      </c>
-      <c r="AD26">
-        <v>2.63</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
       <c r="AH26">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3582,70 +3582,70 @@
         <v>118</v>
       </c>
       <c r="G27">
-        <v>2.53</v>
+        <v>2.11</v>
       </c>
       <c r="H27">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="I27">
-        <v>2.48</v>
+        <v>2.89</v>
       </c>
       <c r="J27">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L27">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="M27">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N27">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="O27">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="P27">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="Q27">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="S27">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="T27">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="U27">
         <v>1.3</v>
       </c>
       <c r="V27">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="W27">
+        <v>3</v>
+      </c>
+      <c r="X27">
         <v>1</v>
       </c>
-      <c r="X27">
-        <v>3</v>
-      </c>
       <c r="Y27">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="Z27">
-        <v>0.96</v>
+        <v>1.24</v>
       </c>
       <c r="AA27">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="AB27">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AC27">
         <v>8</v>
@@ -3654,19 +3654,19 @@
         <v>2.2</v>
       </c>
       <c r="AE27">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AF27">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AG27">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AH27">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="AI27">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -3689,91 +3689,91 @@
         <v>119</v>
       </c>
       <c r="G28">
-        <v>2.22</v>
+        <v>1.67</v>
       </c>
       <c r="H28">
-        <v>3.2</v>
+        <v>3.63</v>
       </c>
       <c r="I28">
-        <v>2.8</v>
+        <v>4.23</v>
       </c>
       <c r="J28">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L28">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M28">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N28">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="O28">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="P28">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="Q28">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="R28">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T28">
+        <v>1.19</v>
+      </c>
+      <c r="U28">
+        <v>1.23</v>
+      </c>
+      <c r="V28">
+        <v>2.05</v>
+      </c>
+      <c r="W28">
+        <v>3</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
         <v>1.33</v>
       </c>
-      <c r="U28">
-        <v>1.34</v>
-      </c>
-      <c r="V28">
-        <v>1.6</v>
-      </c>
-      <c r="W28">
-        <v>3</v>
-      </c>
-      <c r="X28">
-        <v>3</v>
-      </c>
-      <c r="Y28">
-        <v>1.56</v>
-      </c>
       <c r="Z28">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="AA28">
-        <v>3.08</v>
+        <v>2.79</v>
       </c>
       <c r="AB28">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="AC28">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD28">
-        <v>2.52</v>
+        <v>2.64</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AG28">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -3802,7 +3802,7 @@
         <v>3.7</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>4.14</v>
       </c>
       <c r="J29">
         <v>1.05</v>
@@ -3817,10 +3817,10 @@
         <v>3.75</v>
       </c>
       <c r="N29">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="O29">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="P29">
         <v>1.35</v>
@@ -3829,58 +3829,58 @@
         <v>3</v>
       </c>
       <c r="R29">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="S29">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="T29">
+        <v>1.14</v>
+      </c>
+      <c r="U29">
         <v>1.19</v>
       </c>
-      <c r="U29">
-        <v>1.23</v>
-      </c>
       <c r="V29">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="W29">
         <v>3</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="Z29">
-        <v>1.46</v>
+        <v>1.26</v>
       </c>
       <c r="AA29">
-        <v>2.79</v>
+        <v>2.63</v>
       </c>
       <c r="AB29">
-        <v>1.64</v>
+        <v>1.31</v>
       </c>
       <c r="AC29">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD29">
-        <v>2.64</v>
+        <v>4.13</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AG29">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -3903,82 +3903,82 @@
         <v>121</v>
       </c>
       <c r="G30">
+        <v>2.26</v>
+      </c>
+      <c r="H30">
+        <v>3.21</v>
+      </c>
+      <c r="I30">
+        <v>2.81</v>
+      </c>
+      <c r="J30">
+        <v>1.07</v>
+      </c>
+      <c r="K30">
+        <v>7.5</v>
+      </c>
+      <c r="L30">
+        <v>1.36</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>1.97</v>
+      </c>
+      <c r="O30">
+        <v>1.81</v>
+      </c>
+      <c r="P30">
+        <v>1.4</v>
+      </c>
+      <c r="Q30">
+        <v>2.75</v>
+      </c>
+      <c r="R30">
+        <v>1.8</v>
+      </c>
+      <c r="S30">
+        <v>1.91</v>
+      </c>
+      <c r="T30">
+        <v>1.36</v>
+      </c>
+      <c r="U30">
+        <v>1.3</v>
+      </c>
+      <c r="V30">
         <v>1.55</v>
       </c>
-      <c r="H30">
-        <v>3.95</v>
-      </c>
-      <c r="I30">
-        <v>4.5</v>
-      </c>
-      <c r="J30">
-        <v>1.05</v>
-      </c>
-      <c r="K30">
-        <v>9</v>
-      </c>
-      <c r="L30">
-        <v>1.25</v>
-      </c>
-      <c r="M30">
-        <v>3.75</v>
-      </c>
-      <c r="N30">
-        <v>1.8</v>
-      </c>
-      <c r="O30">
-        <v>2</v>
-      </c>
-      <c r="P30">
-        <v>1.35</v>
-      </c>
-      <c r="Q30">
-        <v>3</v>
-      </c>
-      <c r="R30">
-        <v>1.82</v>
-      </c>
-      <c r="S30">
-        <v>1.87</v>
-      </c>
-      <c r="T30">
-        <v>1.14</v>
-      </c>
-      <c r="U30">
-        <v>1.19</v>
-      </c>
-      <c r="V30">
-        <v>2.45</v>
-      </c>
       <c r="W30">
         <v>3</v>
       </c>
       <c r="X30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y30">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="Z30">
-        <v>1.26</v>
+        <v>1.59</v>
       </c>
       <c r="AA30">
-        <v>2.63</v>
+        <v>2.92</v>
       </c>
       <c r="AB30">
-        <v>1.31</v>
+        <v>1.91</v>
       </c>
       <c r="AC30">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AD30">
-        <v>4.13</v>
+        <v>2.2</v>
       </c>
       <c r="AE30">
         <v>1.29</v>
       </c>
       <c r="AF30">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AG30">
         <v>1.85</v>
@@ -3987,7 +3987,7 @@
         <v>2.37</v>
       </c>
       <c r="AI30">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -4010,31 +4010,31 @@
         <v>122</v>
       </c>
       <c r="G31">
-        <v>2.28</v>
+        <v>2.49</v>
       </c>
       <c r="H31">
-        <v>3.2</v>
+        <v>3.26</v>
       </c>
       <c r="I31">
-        <v>2.73</v>
+        <v>2.48</v>
       </c>
       <c r="J31">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K31">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L31">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O31">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P31">
         <v>1.4</v>
@@ -4049,28 +4049,28 @@
         <v>1.91</v>
       </c>
       <c r="T31">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="U31">
         <v>1.3</v>
       </c>
       <c r="V31">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="W31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X31">
         <v>3</v>
       </c>
       <c r="Y31">
-        <v>1.33</v>
+        <v>1.74</v>
       </c>
       <c r="Z31">
-        <v>1.59</v>
+        <v>0.96</v>
       </c>
       <c r="AA31">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="AB31">
         <v>1.91</v>
@@ -4082,19 +4082,19 @@
         <v>2.2</v>
       </c>
       <c r="AE31">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AF31">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="AG31">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="AH31">
-        <v>2.37</v>
+        <v>2.15</v>
       </c>
       <c r="AI31">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -4117,91 +4117,91 @@
         <v>123</v>
       </c>
       <c r="G32">
-        <v>2.01</v>
+        <v>2.14</v>
       </c>
       <c r="H32">
-        <v>3.4</v>
+        <v>3.29</v>
       </c>
       <c r="I32">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="J32">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K32">
-        <v>9</v>
+        <v>7.75</v>
       </c>
       <c r="L32">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="M32">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N32">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="O32">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="P32">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="Q32">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="R32">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="S32">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T32">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="U32">
         <v>1.3</v>
       </c>
       <c r="V32">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="W32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <v>1.61</v>
+        <v>1.88</v>
       </c>
       <c r="Z32">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="AA32">
-        <v>2.85</v>
+        <v>3.01</v>
       </c>
       <c r="AB32">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="AC32">
         <v>8</v>
       </c>
       <c r="AD32">
-        <v>2.2</v>
+        <v>2.65</v>
       </c>
       <c r="AE32">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AF32">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="AG32">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="AH32">
-        <v>2.03</v>
+        <v>2.25</v>
       </c>
       <c r="AI32">
-        <v>2.65</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -4224,52 +4224,52 @@
         <v>124</v>
       </c>
       <c r="G33">
-        <v>1.97</v>
+        <v>2.49</v>
       </c>
       <c r="H33">
-        <v>3.4</v>
+        <v>3.26</v>
       </c>
       <c r="I33">
-        <v>3.15</v>
+        <v>2.48</v>
       </c>
       <c r="J33">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K33">
-        <v>7.75</v>
+        <v>8.25</v>
       </c>
       <c r="L33">
         <v>1.31</v>
       </c>
       <c r="M33">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N33">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O33">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P33">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="Q33">
         <v>2.65</v>
       </c>
       <c r="R33">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="S33">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T33">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="U33">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V33">
-        <v>1.75</v>
+        <v>1.46</v>
       </c>
       <c r="W33">
         <v>0</v>
@@ -4278,37 +4278,37 @@
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>1.88</v>
+        <v>0.67</v>
       </c>
       <c r="Z33">
-        <v>1.13</v>
+        <v>0.78</v>
       </c>
       <c r="AA33">
-        <v>3.01</v>
+        <v>1.45</v>
       </c>
       <c r="AB33">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AC33">
         <v>8</v>
       </c>
       <c r="AD33">
-        <v>2.65</v>
+        <v>2.54</v>
       </c>
       <c r="AE33">
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG33">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -4331,91 +4331,91 @@
         <v>125</v>
       </c>
       <c r="G34">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="H34">
-        <v>3.2</v>
+        <v>3.27</v>
       </c>
       <c r="I34">
-        <v>2.73</v>
+        <v>2.96</v>
       </c>
       <c r="J34">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K34">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="L34">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M34">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N34">
+        <v>1.95</v>
+      </c>
+      <c r="O34">
+        <v>1.73</v>
+      </c>
+      <c r="P34">
+        <v>1.4</v>
+      </c>
+      <c r="Q34">
+        <v>2.75</v>
+      </c>
+      <c r="R34">
+        <v>1.75</v>
+      </c>
+      <c r="S34">
         <v>2</v>
       </c>
-      <c r="O34">
-        <v>1.8</v>
-      </c>
-      <c r="P34">
-        <v>1.41</v>
-      </c>
-      <c r="Q34">
-        <v>2.65</v>
-      </c>
-      <c r="R34">
-        <v>1.72</v>
-      </c>
-      <c r="S34">
-        <v>1.98</v>
-      </c>
       <c r="T34">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="U34">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="V34">
-        <v>1.46</v>
+        <v>1.7</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X34">
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>0.67</v>
+        <v>1.28</v>
       </c>
       <c r="Z34">
-        <v>0.78</v>
+        <v>1.07</v>
       </c>
       <c r="AA34">
-        <v>1.45</v>
+        <v>2.35</v>
       </c>
       <c r="AB34">
-        <v>1.69</v>
+        <v>1.91</v>
       </c>
       <c r="AC34">
         <v>8</v>
       </c>
       <c r="AD34">
-        <v>2.54</v>
+        <v>2.1</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AG34">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="35" spans="1:35">
@@ -4438,31 +4438,31 @@
         <v>126</v>
       </c>
       <c r="G35">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="H35">
-        <v>3.2</v>
+        <v>3.29</v>
       </c>
       <c r="I35">
-        <v>2.97</v>
+        <v>2.94</v>
       </c>
       <c r="J35">
         <v>1.05</v>
       </c>
       <c r="K35">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L35">
         <v>1.33</v>
       </c>
       <c r="M35">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="O35">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="P35">
         <v>1.4</v>
@@ -4477,7 +4477,7 @@
         <v>2</v>
       </c>
       <c r="T35">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="U35">
         <v>1.25</v>
@@ -4486,19 +4486,19 @@
         <v>1.7</v>
       </c>
       <c r="W35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X35">
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>1.28</v>
+        <v>0.98</v>
       </c>
       <c r="Z35">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="AA35">
-        <v>2.35</v>
+        <v>2.13</v>
       </c>
       <c r="AB35">
         <v>1.91</v>
@@ -4507,22 +4507,22 @@
         <v>8</v>
       </c>
       <c r="AD35">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AE35">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="AF35">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="AG35">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="AH35">
-        <v>2.07</v>
+        <v>2.32</v>
       </c>
       <c r="AI35">
-        <v>2.75</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="36" spans="1:35">
@@ -4545,91 +4545,91 @@
         <v>127</v>
       </c>
       <c r="G36">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="H36">
-        <v>3.2</v>
+        <v>3.29</v>
       </c>
       <c r="I36">
-        <v>2.91</v>
+        <v>2.94</v>
       </c>
       <c r="J36">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K36">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L36">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M36">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N36">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="O36">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="P36">
         <v>1.4</v>
       </c>
       <c r="Q36">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="R36">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="S36">
         <v>2</v>
       </c>
       <c r="T36">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="U36">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="V36">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y36">
-        <v>0.98</v>
+        <v>1.56</v>
       </c>
       <c r="Z36">
-        <v>1.15</v>
+        <v>1.52</v>
       </c>
       <c r="AA36">
-        <v>2.13</v>
+        <v>3.08</v>
       </c>
       <c r="AB36">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AC36">
         <v>8</v>
       </c>
       <c r="AD36">
-        <v>2.2</v>
+        <v>2.52</v>
       </c>
       <c r="AE36">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AF36">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="AG36">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AH36">
-        <v>2.32</v>
+        <v>2.17</v>
       </c>
       <c r="AI36">
-        <v>3.15</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="37" spans="1:35">
@@ -4652,13 +4652,13 @@
         <v>128</v>
       </c>
       <c r="G37">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H37">
-        <v>4.33</v>
+        <v>3.86</v>
       </c>
       <c r="I37">
-        <v>4.75</v>
+        <v>4.69</v>
       </c>
       <c r="J37">
         <v>1.03</v>
@@ -4673,10 +4673,10 @@
         <v>4.05</v>
       </c>
       <c r="N37">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="O37">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="P37">
         <v>1.33</v>
@@ -4741,7 +4741,7 @@
     </row>
     <row r="38" spans="1:35">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2">
         <v>45153</v>
@@ -4750,7 +4750,7 @@
         <v>51</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E38" t="s">
         <v>89</v>
@@ -4759,91 +4759,91 @@
         <v>129</v>
       </c>
       <c r="G38">
-        <v>2.03</v>
+        <v>1.48</v>
       </c>
       <c r="H38">
+        <v>3.74</v>
+      </c>
+      <c r="I38">
+        <v>5.38</v>
+      </c>
+      <c r="J38">
+        <v>1.01</v>
+      </c>
+      <c r="K38">
+        <v>9.5</v>
+      </c>
+      <c r="L38">
+        <v>1.26</v>
+      </c>
+      <c r="M38">
         <v>3.4</v>
       </c>
-      <c r="I38">
-        <v>3</v>
-      </c>
-      <c r="J38">
-        <v>1.04</v>
-      </c>
-      <c r="K38">
-        <v>12</v>
-      </c>
-      <c r="L38">
-        <v>1.3</v>
-      </c>
-      <c r="M38">
-        <v>3.5</v>
-      </c>
       <c r="N38">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O38">
         <v>1.9</v>
       </c>
       <c r="P38">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Q38">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="R38">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="S38">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="T38">
-        <v>1.28</v>
+        <v>1.13</v>
       </c>
       <c r="U38">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="V38">
-        <v>1.85</v>
+        <v>2.41</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="Y38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="AA38">
-        <v>3.4</v>
+        <v>1.18</v>
       </c>
       <c r="AB38">
-        <v>1.91</v>
+        <v>1.25</v>
       </c>
       <c r="AC38">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD38">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="AE38">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="AF38">
-        <v>1.35</v>
+        <v>1.59</v>
       </c>
       <c r="AG38">
-        <v>1.62</v>
+        <v>2.07</v>
       </c>
       <c r="AH38">
-        <v>2.03</v>
+        <v>2.75</v>
       </c>
       <c r="AI38">
-        <v>2.65</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="39" spans="1:35">
@@ -4866,37 +4866,37 @@
         <v>130</v>
       </c>
       <c r="G39">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H39">
-        <v>3.4</v>
+        <v>3.37</v>
       </c>
       <c r="I39">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J39">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K39">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L39">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M39">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N39">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="O39">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="P39">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q39">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R39">
         <v>1.75</v>
@@ -4905,57 +4905,57 @@
         <v>2</v>
       </c>
       <c r="T39">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="U39">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="V39">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y39">
-        <v>1.22</v>
+        <v>2</v>
       </c>
       <c r="Z39">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="AA39">
-        <v>2.41</v>
+        <v>3.4</v>
       </c>
       <c r="AB39">
-        <v>1.51</v>
+        <v>1.91</v>
       </c>
       <c r="AC39">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD39">
-        <v>3.07</v>
+        <v>2.2</v>
       </c>
       <c r="AE39">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AF39">
-        <v>1.51</v>
+        <v>1.35</v>
       </c>
       <c r="AG39">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="AH39">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AI39">
-        <v>3.3</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="40" spans="1:35">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2">
         <v>45153</v>
@@ -4964,7 +4964,7 @@
         <v>51</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E40" t="s">
         <v>91</v>
@@ -4973,88 +4973,88 @@
         <v>131</v>
       </c>
       <c r="G40">
-        <v>1.55</v>
+        <v>2.14</v>
       </c>
       <c r="H40">
-        <v>4.2</v>
+        <v>3.29</v>
       </c>
       <c r="I40">
-        <v>6</v>
+        <v>2.96</v>
       </c>
       <c r="J40">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="K40">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L40">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="M40">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N40">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="O40">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="P40">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q40">
-        <v>2.96</v>
+        <v>2.75</v>
       </c>
       <c r="R40">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="S40">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="T40">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="U40">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="V40">
+        <v>1.93</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>1.22</v>
+      </c>
+      <c r="Z40">
+        <v>1.19</v>
+      </c>
+      <c r="AA40">
         <v>2.41</v>
       </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>2.33</v>
-      </c>
-      <c r="Y40">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>1.18</v>
-      </c>
-      <c r="AA40">
-        <v>1.18</v>
-      </c>
       <c r="AB40">
-        <v>1.25</v>
+        <v>1.51</v>
       </c>
       <c r="AC40">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD40">
-        <v>5.25</v>
+        <v>3.07</v>
       </c>
       <c r="AE40">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AF40">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="AG40">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="AH40">
-        <v>2.75</v>
+        <v>2.47</v>
       </c>
       <c r="AI40">
         <v>3.3</v>

--- a/Jogos_do_Dia/2023-08-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -202,19 +202,40 @@
     <t>Molde</t>
   </si>
   <si>
+    <t>Dinamo Zagreb</t>
+  </si>
+  <si>
+    <t>Galatasaray</t>
+  </si>
+  <si>
     <t>Bačka Topola</t>
   </si>
   <si>
-    <t>Dinamo Zagreb</t>
-  </si>
-  <si>
-    <t>Galatasaray</t>
+    <t>Servette</t>
   </si>
   <si>
     <t>Sturm Graz</t>
   </si>
   <si>
-    <t>Servette</t>
+    <t>Doncaster Rovers</t>
+  </si>
+  <si>
+    <t>Stockport County</t>
+  </si>
+  <si>
+    <t>Morecambe</t>
+  </si>
+  <si>
+    <t>Forest Green Rovers</t>
+  </si>
+  <si>
+    <t>Colchester United</t>
+  </si>
+  <si>
+    <t>Crewe Alexandra</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
   </si>
   <si>
     <t>Tranmere Rovers</t>
@@ -223,33 +244,12 @@
     <t>Accrington Stanley</t>
   </si>
   <si>
-    <t>Colchester United</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
-  </si>
-  <si>
-    <t>Crewe Alexandra</t>
-  </si>
-  <si>
-    <t>Doncaster Rovers</t>
-  </si>
-  <si>
-    <t>Forest Green Rovers</t>
+    <t>Sutton United</t>
   </si>
   <si>
     <t>Grimsby Town</t>
   </si>
   <si>
-    <t>Stockport County</t>
-  </si>
-  <si>
-    <t>Sutton United</t>
-  </si>
-  <si>
-    <t>Morecambe</t>
-  </si>
-  <si>
     <t>Charlton Athletic</t>
   </si>
   <si>
@@ -322,19 +322,40 @@
     <t>KÍ</t>
   </si>
   <si>
+    <t>AEK Athens</t>
+  </si>
+  <si>
+    <t>Olimpija</t>
+  </si>
+  <si>
     <t>Sporting Braga</t>
   </si>
   <si>
-    <t>AEK Athens</t>
-  </si>
-  <si>
-    <t>Olimpija</t>
+    <t>Rangers</t>
   </si>
   <si>
     <t>PSV</t>
   </si>
   <si>
-    <t>Rangers</t>
+    <t>Mansfield Town</t>
+  </si>
+  <si>
+    <t>Bradford City</t>
+  </si>
+  <si>
+    <t>Notts County</t>
+  </si>
+  <si>
+    <t>Swindon Town</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons</t>
   </si>
   <si>
     <t>Harrogate Town</t>
@@ -343,31 +364,10 @@
     <t>Barrow</t>
   </si>
   <si>
-    <t>AFC Wimbledon</t>
-  </si>
-  <si>
-    <t>Milton Keynes Dons</t>
-  </si>
-  <si>
-    <t>Newport County</t>
-  </si>
-  <si>
-    <t>Mansfield Town</t>
-  </si>
-  <si>
-    <t>Swindon Town</t>
+    <t>Gillingham</t>
   </si>
   <si>
     <t>Salford City</t>
-  </si>
-  <si>
-    <t>Bradford City</t>
-  </si>
-  <si>
-    <t>Gillingham</t>
-  </si>
-  <si>
-    <t>Notts County</t>
   </si>
   <si>
     <t>Bristol Rovers</t>
@@ -907,13 +907,13 @@
         <v>93</v>
       </c>
       <c r="G2">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H2">
-        <v>4.24</v>
+        <v>3.75</v>
       </c>
       <c r="I2">
-        <v>5.09</v>
+        <v>5.25</v>
       </c>
       <c r="J2">
         <v>1.04</v>
@@ -955,10 +955,10 @@
         <v>2.35</v>
       </c>
       <c r="W2">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="X2">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="Y2">
         <v>1.84</v>
@@ -1014,13 +1014,13 @@
         <v>94</v>
       </c>
       <c r="G3">
-        <v>2.29</v>
+        <v>2.4</v>
       </c>
       <c r="H3">
-        <v>3.06</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="J3">
         <v>1.07</v>
@@ -1035,10 +1035,10 @@
         <v>3.1</v>
       </c>
       <c r="N3">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="O3">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="P3">
         <v>1.44</v>
@@ -1062,7 +1062,7 @@
         <v>1.53</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -1121,13 +1121,13 @@
         <v>95</v>
       </c>
       <c r="G4">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="H4">
-        <v>3.73</v>
+        <v>3.25</v>
       </c>
       <c r="I4">
-        <v>3.72</v>
+        <v>3.4</v>
       </c>
       <c r="J4">
         <v>1.05</v>
@@ -1142,10 +1142,10 @@
         <v>3.5</v>
       </c>
       <c r="N4">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O4">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="P4">
         <v>1.36</v>
@@ -1169,10 +1169,10 @@
         <v>1.83</v>
       </c>
       <c r="W4">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="X4">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="Y4">
         <v>1.56</v>
@@ -1228,13 +1228,13 @@
         <v>96</v>
       </c>
       <c r="G5">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="H5">
-        <v>3.63</v>
+        <v>4.33</v>
       </c>
       <c r="I5">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="J5">
         <v>1.04</v>
@@ -1249,10 +1249,10 @@
         <v>3.75</v>
       </c>
       <c r="N5">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O5">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="P5">
         <v>1.3</v>
@@ -1276,10 +1276,10 @@
         <v>2.75</v>
       </c>
       <c r="W5">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="X5">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Y5">
         <v>1.54</v>
@@ -1335,13 +1335,13 @@
         <v>97</v>
       </c>
       <c r="G6">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="H6">
         <v>3.1</v>
       </c>
       <c r="I6">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J6">
         <v>1.06</v>
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="O6">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P6">
         <v>1.41</v>
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="X6">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Y6">
         <v>1.57</v>
@@ -1442,31 +1442,31 @@
         <v>98</v>
       </c>
       <c r="G7">
-        <v>2.57</v>
+        <v>2.2</v>
       </c>
       <c r="H7">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="I7">
-        <v>2.54</v>
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="N7">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="O7">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="P7">
         <v>1.44</v>
@@ -1481,19 +1481,19 @@
         <v>1.83</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="X7">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="Y7">
         <v>2.45</v>
@@ -1505,28 +1505,28 @@
         <v>4.13</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1549,13 +1549,13 @@
         <v>99</v>
       </c>
       <c r="G8">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="H8">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="I8">
-        <v>4.95</v>
+        <v>5.25</v>
       </c>
       <c r="J8">
         <v>1.03</v>
@@ -1570,10 +1570,10 @@
         <v>4.1</v>
       </c>
       <c r="N8">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="O8">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="P8">
         <v>1.29</v>
@@ -1597,10 +1597,10 @@
         <v>2.43</v>
       </c>
       <c r="W8">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="X8">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="Y8">
         <v>2.51</v>
@@ -1656,13 +1656,13 @@
         <v>100</v>
       </c>
       <c r="G9">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="H9">
-        <v>2.89</v>
+        <v>3.05</v>
       </c>
       <c r="I9">
-        <v>2.73</v>
+        <v>3.1</v>
       </c>
       <c r="J9">
         <v>1.05</v>
@@ -1677,10 +1677,10 @@
         <v>3.6</v>
       </c>
       <c r="N9">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="P9">
         <v>1.4</v>
@@ -1707,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="X9">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1763,13 +1763,13 @@
         <v>101</v>
       </c>
       <c r="G10">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="H10">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="I10">
-        <v>8.98</v>
+        <v>9.5</v>
       </c>
       <c r="J10">
         <v>1.02</v>
@@ -1784,10 +1784,10 @@
         <v>5.5</v>
       </c>
       <c r="N10">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P10">
         <v>1.22</v>
@@ -1811,10 +1811,10 @@
         <v>4</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="X10">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="Y10">
         <v>2.22</v>
@@ -1870,91 +1870,91 @@
         <v>102</v>
       </c>
       <c r="G11">
-        <v>4.25</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>3.71</v>
+        <v>3.25</v>
       </c>
       <c r="I11">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="J11">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K11">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="L11">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="M11">
-        <v>3.8</v>
+        <v>2.95</v>
       </c>
       <c r="N11">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="O11">
-        <v>2.14</v>
+        <v>1.7</v>
       </c>
       <c r="P11">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="Q11">
-        <v>3.28</v>
+        <v>2.55</v>
       </c>
       <c r="R11">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="S11">
-        <v>2.07</v>
+        <v>1.87</v>
       </c>
       <c r="T11">
-        <v>2.34</v>
+        <v>1.25</v>
       </c>
       <c r="U11">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="V11">
-        <v>1.16</v>
+        <v>1.7</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X11">
         <v>3</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AB11">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="AC11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD11">
-        <v>1.6</v>
+        <v>2.38</v>
       </c>
       <c r="AE11">
-        <v>1.29</v>
+        <v>1.64</v>
       </c>
       <c r="AF11">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="AG11">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="AH11">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="AI11">
-        <v>2.8</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1977,91 +1977,91 @@
         <v>103</v>
       </c>
       <c r="G12">
-        <v>2.12</v>
+        <v>1.3</v>
       </c>
       <c r="H12">
-        <v>2.87</v>
+        <v>4.6</v>
       </c>
       <c r="I12">
-        <v>3.22</v>
+        <v>7</v>
       </c>
       <c r="J12">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="K12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L12">
-        <v>1.35</v>
+        <v>1.16</v>
       </c>
       <c r="M12">
-        <v>2.95</v>
+        <v>4.5</v>
       </c>
       <c r="N12">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="P12">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="Q12">
-        <v>2.55</v>
+        <v>3.48</v>
       </c>
       <c r="R12">
-        <v>1.87</v>
+        <v>2.01</v>
       </c>
       <c r="S12">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="T12">
-        <v>1.25</v>
+        <v>1.04</v>
       </c>
       <c r="U12">
-        <v>1.35</v>
+        <v>1.14</v>
       </c>
       <c r="V12">
-        <v>1.7</v>
+        <v>3.64</v>
       </c>
       <c r="W12">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="Y12">
-        <v>2.41</v>
+        <v>1.89</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AA12">
-        <v>2.41</v>
+        <v>3.82</v>
       </c>
       <c r="AB12">
-        <v>1.95</v>
+        <v>1.15</v>
       </c>
       <c r="AC12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AD12">
-        <v>2.38</v>
+        <v>7.5</v>
       </c>
       <c r="AE12">
-        <v>1.64</v>
+        <v>1.17</v>
       </c>
       <c r="AF12">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="AG12">
-        <v>2.9</v>
+        <v>1.48</v>
       </c>
       <c r="AH12">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="AI12">
-        <v>5.3</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -2084,91 +2084,91 @@
         <v>104</v>
       </c>
       <c r="G13">
-        <v>1.21</v>
+        <v>4.25</v>
       </c>
       <c r="H13">
-        <v>5.07</v>
+        <v>3.71</v>
       </c>
       <c r="I13">
-        <v>9.4</v>
+        <v>1.6</v>
       </c>
       <c r="J13">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K13">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="L13">
+        <v>1.23</v>
+      </c>
+      <c r="M13">
+        <v>3.8</v>
+      </c>
+      <c r="N13">
+        <v>1.66</v>
+      </c>
+      <c r="O13">
+        <v>2.14</v>
+      </c>
+      <c r="P13">
+        <v>1.31</v>
+      </c>
+      <c r="Q13">
+        <v>3.28</v>
+      </c>
+      <c r="R13">
+        <v>1.72</v>
+      </c>
+      <c r="S13">
+        <v>2.07</v>
+      </c>
+      <c r="T13">
+        <v>2.34</v>
+      </c>
+      <c r="U13">
+        <v>1.22</v>
+      </c>
+      <c r="V13">
         <v>1.16</v>
       </c>
-      <c r="M13">
-        <v>4.5</v>
-      </c>
-      <c r="N13">
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>3</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>3</v>
+      </c>
+      <c r="AC13">
+        <v>7</v>
+      </c>
+      <c r="AD13">
         <v>1.6</v>
       </c>
-      <c r="O13">
-        <v>2.1</v>
-      </c>
-      <c r="P13">
-        <v>1.28</v>
-      </c>
-      <c r="Q13">
-        <v>3.48</v>
-      </c>
-      <c r="R13">
-        <v>2.01</v>
-      </c>
-      <c r="S13">
-        <v>1.76</v>
-      </c>
-      <c r="T13">
-        <v>1.04</v>
-      </c>
-      <c r="U13">
-        <v>1.14</v>
-      </c>
-      <c r="V13">
-        <v>3.64</v>
-      </c>
-      <c r="W13">
-        <v>2.33</v>
-      </c>
-      <c r="X13">
-        <v>2</v>
-      </c>
-      <c r="Y13">
-        <v>1.89</v>
-      </c>
-      <c r="Z13">
-        <v>1.93</v>
-      </c>
-      <c r="AA13">
-        <v>3.82</v>
-      </c>
-      <c r="AB13">
-        <v>1.15</v>
-      </c>
-      <c r="AC13">
-        <v>10</v>
-      </c>
-      <c r="AD13">
-        <v>7.5</v>
-      </c>
       <c r="AE13">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AF13">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AG13">
-        <v>1.48</v>
+        <v>1.8</v>
       </c>
       <c r="AH13">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AI13">
-        <v>2.27</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2191,91 +2191,91 @@
         <v>105</v>
       </c>
       <c r="G14">
-        <v>2.99</v>
+        <v>3.05</v>
       </c>
       <c r="H14">
-        <v>3.33</v>
+        <v>3.4</v>
       </c>
       <c r="I14">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J14">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K14">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="L14">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="M14">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N14">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="O14">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="P14">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q14">
-        <v>3.34</v>
+        <v>3.16</v>
       </c>
       <c r="R14">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="S14">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="T14">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U14">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="V14">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="X14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="Z14">
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AB14">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="AC14">
         <v>7</v>
       </c>
       <c r="AD14">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AE14">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AF14">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AG14">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AH14">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AI14">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2301,88 +2301,88 @@
         <v>3.1</v>
       </c>
       <c r="H15">
-        <v>3.13</v>
+        <v>3.35</v>
       </c>
       <c r="I15">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K15">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="L15">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="M15">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N15">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="O15">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="P15">
+        <v>1.3</v>
+      </c>
+      <c r="Q15">
+        <v>3.34</v>
+      </c>
+      <c r="R15">
+        <v>1.56</v>
+      </c>
+      <c r="S15">
+        <v>2.36</v>
+      </c>
+      <c r="T15">
+        <v>1.75</v>
+      </c>
+      <c r="U15">
+        <v>1.27</v>
+      </c>
+      <c r="V15">
         <v>1.33</v>
       </c>
-      <c r="Q15">
-        <v>3.16</v>
-      </c>
-      <c r="R15">
-        <v>1.63</v>
-      </c>
-      <c r="S15">
-        <v>2.22</v>
-      </c>
-      <c r="T15">
-        <v>1.78</v>
-      </c>
-      <c r="U15">
-        <v>1.28</v>
-      </c>
-      <c r="V15">
-        <v>1.31</v>
-      </c>
       <c r="W15">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="X15">
         <v>3</v>
       </c>
       <c r="Y15">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AC15">
         <v>7</v>
       </c>
       <c r="AD15">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AE15">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AF15">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AG15">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AH15">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AI15">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2405,91 +2405,91 @@
         <v>107</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>3.85</v>
       </c>
       <c r="H16">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="I16">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="J16">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L16">
+        <v>1.3</v>
+      </c>
+      <c r="M16">
+        <v>3.5</v>
+      </c>
+      <c r="N16">
+        <v>1.9</v>
+      </c>
+      <c r="O16">
+        <v>1.8</v>
+      </c>
+      <c r="P16">
         <v>1.36</v>
       </c>
-      <c r="M16">
-        <v>3.1</v>
-      </c>
-      <c r="N16">
-        <v>2.11</v>
-      </c>
-      <c r="O16">
-        <v>1.65</v>
-      </c>
-      <c r="P16">
-        <v>1.44</v>
-      </c>
       <c r="Q16">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="R16">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S16">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="T16">
-        <v>1.36</v>
+        <v>1.75</v>
       </c>
       <c r="U16">
         <v>1.25</v>
       </c>
       <c r="V16">
-        <v>1.66</v>
+        <v>1.3</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y16">
-        <v>1.53</v>
+        <v>1.16</v>
       </c>
       <c r="Z16">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="AA16">
-        <v>3.2</v>
+        <v>3.41</v>
       </c>
       <c r="AB16">
-        <v>1.64</v>
+        <v>2.77</v>
       </c>
       <c r="AC16">
         <v>8</v>
       </c>
       <c r="AD16">
-        <v>2.77</v>
+        <v>1.64</v>
       </c>
       <c r="AE16">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AF16">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="AG16">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="AH16">
-        <v>2.37</v>
+        <v>2.8</v>
       </c>
       <c r="AI16">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2512,82 +2512,82 @@
         <v>108</v>
       </c>
       <c r="G17">
-        <v>2.12</v>
+        <v>1.73</v>
       </c>
       <c r="H17">
-        <v>2.96</v>
+        <v>3.45</v>
       </c>
       <c r="I17">
-        <v>3.12</v>
+        <v>4.75</v>
       </c>
       <c r="J17">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K17">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="L17">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="M17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N17">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="O17">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="P17">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="Q17">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="T17">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="U17">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="V17">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="W17">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="X17">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="Y17">
-        <v>1.79</v>
+        <v>1.54</v>
       </c>
       <c r="Z17">
-        <v>1.03</v>
+        <v>1.54</v>
       </c>
       <c r="AA17">
-        <v>2.82</v>
+        <v>3.08</v>
       </c>
       <c r="AB17">
-        <v>1.91</v>
+        <v>1.31</v>
       </c>
       <c r="AC17">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AD17">
-        <v>2.2</v>
+        <v>4.41</v>
       </c>
       <c r="AE17">
         <v>1.29</v>
       </c>
       <c r="AF17">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AG17">
         <v>1.85</v>
@@ -2596,7 +2596,7 @@
         <v>2.37</v>
       </c>
       <c r="AI17">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2619,91 +2619,91 @@
         <v>109</v>
       </c>
       <c r="G18">
-        <v>2.24</v>
+        <v>3.35</v>
       </c>
       <c r="H18">
-        <v>3.01</v>
+        <v>3.75</v>
       </c>
       <c r="I18">
-        <v>2.85</v>
+        <v>1.95</v>
       </c>
       <c r="J18">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K18">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="L18">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="M18">
+        <v>4.2</v>
+      </c>
+      <c r="N18">
+        <v>1.65</v>
+      </c>
+      <c r="O18">
+        <v>2.1</v>
+      </c>
+      <c r="P18">
+        <v>1.36</v>
+      </c>
+      <c r="Q18">
         <v>3</v>
       </c>
-      <c r="N18">
-        <v>2.06</v>
-      </c>
-      <c r="O18">
-        <v>1.68</v>
-      </c>
-      <c r="P18">
-        <v>1.44</v>
-      </c>
-      <c r="Q18">
-        <v>2.6</v>
-      </c>
       <c r="R18">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="S18">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T18">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="U18">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="V18">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Z18">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="AA18">
-        <v>1.29</v>
+        <v>2.27</v>
       </c>
       <c r="AB18">
-        <v>1.59</v>
+        <v>3.07</v>
       </c>
       <c r="AC18">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD18">
-        <v>2.8</v>
+        <v>1.51</v>
       </c>
       <c r="AE18">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="AF18">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AG18">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="AH18">
-        <v>2.37</v>
+        <v>2.22</v>
       </c>
       <c r="AI18">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2726,13 +2726,13 @@
         <v>110</v>
       </c>
       <c r="G19">
-        <v>3.42</v>
+        <v>2.55</v>
       </c>
       <c r="H19">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="I19">
-        <v>1.93</v>
+        <v>2.5</v>
       </c>
       <c r="J19">
         <v>1.05</v>
@@ -2741,76 +2741,76 @@
         <v>10</v>
       </c>
       <c r="L19">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M19">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N19">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="O19">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="P19">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q19">
         <v>2.75</v>
       </c>
       <c r="R19">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S19">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T19">
-        <v>1.78</v>
+        <v>1.45</v>
       </c>
       <c r="U19">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="V19">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="W19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X19">
         <v>3</v>
       </c>
       <c r="Y19">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="Z19">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>3.01</v>
+        <v>1.47</v>
       </c>
       <c r="AB19">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AC19">
         <v>8</v>
       </c>
       <c r="AD19">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AE19">
         <v>1.29</v>
       </c>
       <c r="AF19">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AG19">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AH19">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="AI19">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2833,91 +2833,91 @@
         <v>111</v>
       </c>
       <c r="G20">
-        <v>2.56</v>
+        <v>2.15</v>
       </c>
       <c r="H20">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I20">
-        <v>2.44</v>
+        <v>3.45</v>
       </c>
       <c r="J20">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K20">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="L20">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="M20">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N20">
-        <v>2.01</v>
+        <v>2.15</v>
       </c>
       <c r="O20">
-        <v>1.79</v>
+        <v>1.62</v>
       </c>
       <c r="P20">
+        <v>1.44</v>
+      </c>
+      <c r="Q20">
+        <v>2.6</v>
+      </c>
+      <c r="R20">
+        <v>1.85</v>
+      </c>
+      <c r="S20">
+        <v>1.85</v>
+      </c>
+      <c r="T20">
         <v>1.4</v>
       </c>
-      <c r="Q20">
-        <v>2.75</v>
-      </c>
-      <c r="R20">
-        <v>1.8</v>
-      </c>
-      <c r="S20">
-        <v>1.91</v>
-      </c>
-      <c r="T20">
-        <v>1.55</v>
-      </c>
       <c r="U20">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="V20">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20">
+        <v>2</v>
+      </c>
+      <c r="Y20">
         <v>0</v>
       </c>
-      <c r="Y20">
-        <v>1.15</v>
-      </c>
       <c r="Z20">
-        <v>1.46</v>
+        <v>1.29</v>
       </c>
       <c r="AA20">
-        <v>2.61</v>
+        <v>1.29</v>
       </c>
       <c r="AB20">
-        <v>2.2</v>
+        <v>1.59</v>
       </c>
       <c r="AC20">
         <v>8</v>
       </c>
       <c r="AD20">
-        <v>1.91</v>
+        <v>2.8</v>
       </c>
       <c r="AE20">
         <v>1.29</v>
       </c>
       <c r="AF20">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="AG20">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AH20">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
       <c r="AI20">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2940,91 +2940,91 @@
         <v>112</v>
       </c>
       <c r="G21">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="H21">
-        <v>3.28</v>
+        <v>3.35</v>
       </c>
       <c r="I21">
-        <v>1.93</v>
+        <v>2.45</v>
       </c>
       <c r="J21">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K21">
         <v>11</v>
       </c>
       <c r="L21">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M21">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N21">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="O21">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="P21">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q21">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="R21">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S21">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="T21">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="U21">
         <v>1.25</v>
       </c>
       <c r="V21">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="W21">
+        <v>2</v>
+      </c>
+      <c r="X21">
         <v>0</v>
       </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
       <c r="Y21">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="Z21">
-        <v>2.25</v>
+        <v>1.46</v>
       </c>
       <c r="AA21">
-        <v>3.41</v>
+        <v>2.61</v>
       </c>
       <c r="AB21">
-        <v>2.77</v>
+        <v>2.2</v>
       </c>
       <c r="AC21">
         <v>8</v>
       </c>
       <c r="AD21">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="AE21">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AF21">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="AG21">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AH21">
-        <v>2.8</v>
+        <v>2.47</v>
       </c>
       <c r="AI21">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -3047,13 +3047,13 @@
         <v>113</v>
       </c>
       <c r="G22">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H22">
-        <v>3.14</v>
+        <v>3.4</v>
       </c>
       <c r="I22">
-        <v>2.53</v>
+        <v>2.15</v>
       </c>
       <c r="J22">
         <v>1.05</v>
@@ -3062,76 +3062,76 @@
         <v>10</v>
       </c>
       <c r="L22">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M22">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N22">
         <v>1.85</v>
       </c>
       <c r="O22">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="P22">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
       </c>
       <c r="R22">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T22">
-        <v>1.45</v>
+        <v>1.78</v>
       </c>
       <c r="U22">
+        <v>1.25</v>
+      </c>
+      <c r="V22">
         <v>1.28</v>
       </c>
-      <c r="V22">
-        <v>1.48</v>
-      </c>
       <c r="W22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y22">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AA22">
-        <v>1.47</v>
+        <v>3.01</v>
       </c>
       <c r="AB22">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AC22">
         <v>8</v>
       </c>
       <c r="AD22">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AE22">
         <v>1.29</v>
       </c>
       <c r="AF22">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AG22">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AH22">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="AI22">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -3154,13 +3154,13 @@
         <v>114</v>
       </c>
       <c r="G23">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="H23">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I23">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="J23">
         <v>1.06</v>
@@ -3172,73 +3172,73 @@
         <v>1.36</v>
       </c>
       <c r="M23">
+        <v>3.1</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>1.7</v>
+      </c>
+      <c r="P23">
+        <v>1.44</v>
+      </c>
+      <c r="Q23">
+        <v>2.63</v>
+      </c>
+      <c r="R23">
+        <v>1.83</v>
+      </c>
+      <c r="S23">
+        <v>1.83</v>
+      </c>
+      <c r="T23">
+        <v>1.36</v>
+      </c>
+      <c r="U23">
+        <v>1.25</v>
+      </c>
+      <c r="V23">
+        <v>1.66</v>
+      </c>
+      <c r="W23">
+        <v>1.5</v>
+      </c>
+      <c r="X23">
+        <v>1.5</v>
+      </c>
+      <c r="Y23">
+        <v>1.53</v>
+      </c>
+      <c r="Z23">
+        <v>1.67</v>
+      </c>
+      <c r="AA23">
         <v>3.2</v>
       </c>
-      <c r="N23">
-        <v>1.9</v>
-      </c>
-      <c r="O23">
-        <v>1.72</v>
-      </c>
-      <c r="P23">
-        <v>1.41</v>
-      </c>
-      <c r="Q23">
-        <v>2.7</v>
-      </c>
-      <c r="R23">
-        <v>1.75</v>
-      </c>
-      <c r="S23">
-        <v>1.95</v>
-      </c>
-      <c r="T23">
-        <v>1.42</v>
-      </c>
-      <c r="U23">
-        <v>1.28</v>
-      </c>
-      <c r="V23">
-        <v>1.57</v>
-      </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="X23">
-        <v>3</v>
-      </c>
-      <c r="Y23">
-        <v>1.6</v>
-      </c>
-      <c r="Z23">
-        <v>0.89</v>
-      </c>
-      <c r="AA23">
-        <v>2.49</v>
-      </c>
       <c r="AB23">
-        <v>1.95</v>
+        <v>1.64</v>
       </c>
       <c r="AC23">
         <v>8</v>
       </c>
       <c r="AD23">
-        <v>2.1</v>
+        <v>2.77</v>
       </c>
       <c r="AE23">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AF23">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AG23">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AH23">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="AI23">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -3261,25 +3261,25 @@
         <v>115</v>
       </c>
       <c r="G24">
-        <v>1.71</v>
+        <v>2.3</v>
       </c>
       <c r="H24">
-        <v>3.21</v>
+        <v>3.1</v>
       </c>
       <c r="I24">
-        <v>4.28</v>
+        <v>3.2</v>
       </c>
       <c r="J24">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K24">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="L24">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N24">
         <v>2.1</v>
@@ -3288,55 +3288,55 @@
         <v>1.65</v>
       </c>
       <c r="P24">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="Q24">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="R24">
+        <v>1.95</v>
+      </c>
+      <c r="S24">
+        <v>1.75</v>
+      </c>
+      <c r="T24">
+        <v>1.32</v>
+      </c>
+      <c r="U24">
+        <v>1.3</v>
+      </c>
+      <c r="V24">
+        <v>1.62</v>
+      </c>
+      <c r="W24">
         <v>2</v>
       </c>
-      <c r="S24">
-        <v>1.73</v>
-      </c>
-      <c r="T24">
-        <v>1.19</v>
-      </c>
-      <c r="U24">
-        <v>1.25</v>
-      </c>
-      <c r="V24">
+      <c r="X24">
         <v>2</v>
       </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
       <c r="Y24">
-        <v>1.54</v>
+        <v>1.79</v>
       </c>
       <c r="Z24">
-        <v>1.54</v>
+        <v>1.03</v>
       </c>
       <c r="AA24">
-        <v>3.08</v>
+        <v>2.82</v>
       </c>
       <c r="AB24">
-        <v>1.31</v>
+        <v>1.91</v>
       </c>
       <c r="AC24">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AD24">
-        <v>4.41</v>
+        <v>2.2</v>
       </c>
       <c r="AE24">
         <v>1.29</v>
       </c>
       <c r="AF24">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AG24">
         <v>1.85</v>
@@ -3345,7 +3345,7 @@
         <v>2.37</v>
       </c>
       <c r="AI24">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3368,13 +3368,13 @@
         <v>116</v>
       </c>
       <c r="G25">
-        <v>1.82</v>
+        <v>2.4</v>
       </c>
       <c r="H25">
-        <v>3.09</v>
+        <v>3.15</v>
       </c>
       <c r="I25">
-        <v>3.89</v>
+        <v>2.95</v>
       </c>
       <c r="J25">
         <v>1.03</v>
@@ -3389,10 +3389,10 @@
         <v>2.8</v>
       </c>
       <c r="N25">
-        <v>2.19</v>
+        <v>2.25</v>
       </c>
       <c r="O25">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P25">
         <v>1.5</v>
@@ -3416,7 +3416,7 @@
         <v>1.55</v>
       </c>
       <c r="W25">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X25">
         <v>3</v>
@@ -3475,91 +3475,91 @@
         <v>117</v>
       </c>
       <c r="G26">
-        <v>3.42</v>
+        <v>2.75</v>
       </c>
       <c r="H26">
-        <v>3.33</v>
+        <v>3.2</v>
       </c>
       <c r="I26">
-        <v>1.93</v>
+        <v>2.55</v>
       </c>
       <c r="J26">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K26">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L26">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="M26">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N26">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="O26">
-        <v>2.11</v>
+        <v>1.75</v>
       </c>
       <c r="P26">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="R26">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S26">
+        <v>1.95</v>
+      </c>
+      <c r="T26">
+        <v>1.42</v>
+      </c>
+      <c r="U26">
+        <v>1.28</v>
+      </c>
+      <c r="V26">
+        <v>1.57</v>
+      </c>
+      <c r="W26">
+        <v>2</v>
+      </c>
+      <c r="X26">
+        <v>1.5</v>
+      </c>
+      <c r="Y26">
+        <v>1.6</v>
+      </c>
+      <c r="Z26">
+        <v>0.89</v>
+      </c>
+      <c r="AA26">
+        <v>2.49</v>
+      </c>
+      <c r="AB26">
+        <v>1.95</v>
+      </c>
+      <c r="AC26">
+        <v>8</v>
+      </c>
+      <c r="AD26">
         <v>2.1</v>
       </c>
-      <c r="T26">
-        <v>1.83</v>
-      </c>
-      <c r="U26">
-        <v>1.25</v>
-      </c>
-      <c r="V26">
-        <v>1.3</v>
-      </c>
-      <c r="W26">
-        <v>3</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>1.12</v>
-      </c>
-      <c r="Z26">
-        <v>1.15</v>
-      </c>
-      <c r="AA26">
-        <v>2.27</v>
-      </c>
-      <c r="AB26">
-        <v>3.07</v>
-      </c>
-      <c r="AC26">
-        <v>8.5</v>
-      </c>
-      <c r="AD26">
-        <v>1.51</v>
-      </c>
       <c r="AE26">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="AF26">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="AG26">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="AH26">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="AI26">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3582,13 +3582,13 @@
         <v>118</v>
       </c>
       <c r="G27">
-        <v>2.11</v>
+        <v>2.01</v>
       </c>
       <c r="H27">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I27">
-        <v>2.89</v>
+        <v>3.05</v>
       </c>
       <c r="J27">
         <v>1.05</v>
@@ -3603,10 +3603,10 @@
         <v>3.75</v>
       </c>
       <c r="N27">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="O27">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="P27">
         <v>1.35</v>
@@ -3630,10 +3630,10 @@
         <v>1.65</v>
       </c>
       <c r="W27">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y27">
         <v>1.61</v>
@@ -3689,13 +3689,13 @@
         <v>119</v>
       </c>
       <c r="G28">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H28">
-        <v>3.63</v>
+        <v>3.9</v>
       </c>
       <c r="I28">
-        <v>4.23</v>
+        <v>4.75</v>
       </c>
       <c r="J28">
         <v>1.05</v>
@@ -3710,10 +3710,10 @@
         <v>3.75</v>
       </c>
       <c r="N28">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O28">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="P28">
         <v>1.35</v>
@@ -3737,10 +3737,10 @@
         <v>2.05</v>
       </c>
       <c r="W28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y28">
         <v>1.33</v>
@@ -3796,13 +3796,13 @@
         <v>120</v>
       </c>
       <c r="G29">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="H29">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="I29">
-        <v>4.14</v>
+        <v>5.25</v>
       </c>
       <c r="J29">
         <v>1.05</v>
@@ -3817,10 +3817,10 @@
         <v>3.75</v>
       </c>
       <c r="N29">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O29">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="P29">
         <v>1.35</v>
@@ -3847,7 +3847,7 @@
         <v>3</v>
       </c>
       <c r="X29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y29">
         <v>1.37</v>
@@ -3903,13 +3903,13 @@
         <v>121</v>
       </c>
       <c r="G30">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="H30">
-        <v>3.21</v>
+        <v>3.3</v>
       </c>
       <c r="I30">
-        <v>2.81</v>
+        <v>2.75</v>
       </c>
       <c r="J30">
         <v>1.07</v>
@@ -3924,10 +3924,10 @@
         <v>3</v>
       </c>
       <c r="N30">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="O30">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="P30">
         <v>1.4</v>
@@ -3951,7 +3951,7 @@
         <v>1.55</v>
       </c>
       <c r="W30">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X30">
         <v>3</v>
@@ -4010,13 +4010,13 @@
         <v>122</v>
       </c>
       <c r="G31">
-        <v>2.49</v>
+        <v>2.6</v>
       </c>
       <c r="H31">
-        <v>3.26</v>
+        <v>3.2</v>
       </c>
       <c r="I31">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="J31">
         <v>1.06</v>
@@ -4031,10 +4031,10 @@
         <v>3.25</v>
       </c>
       <c r="N31">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="O31">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="P31">
         <v>1.4</v>
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="X31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y31">
         <v>1.74</v>
@@ -4117,13 +4117,13 @@
         <v>123</v>
       </c>
       <c r="G32">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="H32">
-        <v>3.29</v>
+        <v>3.4</v>
       </c>
       <c r="I32">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="J32">
         <v>1.07</v>
@@ -4138,10 +4138,10 @@
         <v>3.2</v>
       </c>
       <c r="N32">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="O32">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P32">
         <v>1.42</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y32">
         <v>1.88</v>
@@ -4224,13 +4224,13 @@
         <v>124</v>
       </c>
       <c r="G33">
-        <v>2.49</v>
+        <v>2.28</v>
       </c>
       <c r="H33">
-        <v>3.26</v>
+        <v>3.2</v>
       </c>
       <c r="I33">
-        <v>2.48</v>
+        <v>2.73</v>
       </c>
       <c r="J33">
         <v>1.06</v>
@@ -4245,10 +4245,10 @@
         <v>3.1</v>
       </c>
       <c r="N33">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="O33">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P33">
         <v>1.41</v>
@@ -4272,10 +4272,10 @@
         <v>1.46</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y33">
         <v>0.67</v>
@@ -4296,7 +4296,7 @@
         <v>2.54</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF33">
         <v>1.53</v>
@@ -4331,13 +4331,13 @@
         <v>125</v>
       </c>
       <c r="G34">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="H34">
-        <v>3.27</v>
+        <v>3.2</v>
       </c>
       <c r="I34">
-        <v>2.96</v>
+        <v>2.97</v>
       </c>
       <c r="J34">
         <v>1.05</v>
@@ -4352,10 +4352,10 @@
         <v>3.25</v>
       </c>
       <c r="N34">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O34">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P34">
         <v>1.4</v>
@@ -4438,13 +4438,13 @@
         <v>126</v>
       </c>
       <c r="G35">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="H35">
-        <v>3.29</v>
+        <v>3.2</v>
       </c>
       <c r="I35">
-        <v>2.94</v>
+        <v>2.91</v>
       </c>
       <c r="J35">
         <v>1.05</v>
@@ -4459,10 +4459,10 @@
         <v>3.3</v>
       </c>
       <c r="N35">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="O35">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="P35">
         <v>1.4</v>
@@ -4486,7 +4486,7 @@
         <v>1.7</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X35">
         <v>0</v>
@@ -4545,13 +4545,13 @@
         <v>127</v>
       </c>
       <c r="G36">
-        <v>2.14</v>
+        <v>2.05</v>
       </c>
       <c r="H36">
-        <v>3.29</v>
+        <v>3.35</v>
       </c>
       <c r="I36">
-        <v>2.94</v>
+        <v>3.4</v>
       </c>
       <c r="J36">
         <v>1.06</v>
@@ -4566,10 +4566,10 @@
         <v>3.4</v>
       </c>
       <c r="N36">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O36">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="P36">
         <v>1.4</v>
@@ -4593,7 +4593,7 @@
         <v>1.6</v>
       </c>
       <c r="W36">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X36">
         <v>3</v>
@@ -4652,13 +4652,13 @@
         <v>128</v>
       </c>
       <c r="G37">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H37">
-        <v>3.86</v>
+        <v>4.33</v>
       </c>
       <c r="I37">
-        <v>4.69</v>
+        <v>4.75</v>
       </c>
       <c r="J37">
         <v>1.03</v>
@@ -4673,10 +4673,10 @@
         <v>4.05</v>
       </c>
       <c r="N37">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="O37">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="P37">
         <v>1.33</v>
@@ -4700,7 +4700,7 @@
         <v>2.3</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X37">
         <v>0</v>
@@ -4759,13 +4759,13 @@
         <v>129</v>
       </c>
       <c r="G38">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H38">
-        <v>3.74</v>
+        <v>3.85</v>
       </c>
       <c r="I38">
-        <v>5.38</v>
+        <v>5.25</v>
       </c>
       <c r="J38">
         <v>1.01</v>
@@ -4780,10 +4780,10 @@
         <v>3.4</v>
       </c>
       <c r="N38">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O38">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P38">
         <v>1.37</v>
@@ -4807,10 +4807,10 @@
         <v>2.41</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X38">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -4866,13 +4866,13 @@
         <v>130</v>
       </c>
       <c r="G39">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="H39">
-        <v>3.37</v>
+        <v>3.4</v>
       </c>
       <c r="I39">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="J39">
         <v>1.04</v>
@@ -4887,10 +4887,10 @@
         <v>3.5</v>
       </c>
       <c r="N39">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="O39">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="P39">
         <v>1.36</v>
@@ -4914,10 +4914,10 @@
         <v>1.85</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X39">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Y39">
         <v>2</v>
@@ -4973,13 +4973,13 @@
         <v>131</v>
       </c>
       <c r="G40">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="H40">
-        <v>3.29</v>
+        <v>3.4</v>
       </c>
       <c r="I40">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="J40">
         <v>1.05</v>
@@ -4994,10 +4994,10 @@
         <v>3.3</v>
       </c>
       <c r="N40">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O40">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="P40">
         <v>1.4</v>
@@ -5021,7 +5021,7 @@
         <v>1.93</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X40">
         <v>0</v>
@@ -5080,37 +5080,37 @@
         <v>132</v>
       </c>
       <c r="G41">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="H41">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I41">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N41">
+        <v>2.5</v>
+      </c>
+      <c r="O41">
+        <v>1.53</v>
+      </c>
+      <c r="P41">
+        <v>1.53</v>
+      </c>
+      <c r="Q41">
         <v>2.38</v>
-      </c>
-      <c r="O41">
-        <v>1.57</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
       </c>
       <c r="R41">
         <v>2.2</v>
@@ -5119,19 +5119,19 @@
         <v>1.62</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="W41">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="X41">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="Y41">
         <v>1.98</v>
@@ -5143,7 +5143,7 @@
         <v>3.37</v>
       </c>
       <c r="AB41">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AC41">
         <v>6.75</v>
@@ -5152,19 +5152,19 @@
         <v>2.85</v>
       </c>
       <c r="AE41">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AF41">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AG41">
         <v>1.83</v>
       </c>
       <c r="AH41">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AI41">
-        <v>0</v>
+        <v>2.46</v>
       </c>
     </row>
   </sheetData>
